--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H2">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I2">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J2">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.0301044441879</v>
+        <v>7.908652666666666</v>
       </c>
       <c r="N2">
-        <v>6.0301044441879</v>
+        <v>23.725958</v>
       </c>
       <c r="O2">
-        <v>0.086655050385735</v>
+        <v>0.1059802478036631</v>
       </c>
       <c r="P2">
-        <v>0.086655050385735</v>
+        <v>0.1086148104297394</v>
       </c>
       <c r="Q2">
-        <v>227.9034423424306</v>
+        <v>437.0892995566044</v>
       </c>
       <c r="R2">
-        <v>227.9034423424306</v>
+        <v>3933.80369600944</v>
       </c>
       <c r="S2">
-        <v>0.001011528451819965</v>
+        <v>0.001693548995829635</v>
       </c>
       <c r="T2">
-        <v>0.001011528451819965</v>
+        <v>0.001763265325184849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H3">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I3">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J3">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.43360833318156</v>
+        <v>10.76975733333333</v>
       </c>
       <c r="N3">
-        <v>9.43360833318156</v>
+        <v>32.309272</v>
       </c>
       <c r="O3">
-        <v>0.135564783827095</v>
+        <v>0.1443206066922968</v>
       </c>
       <c r="P3">
-        <v>0.135564783827095</v>
+        <v>0.1479082721718924</v>
       </c>
       <c r="Q3">
-        <v>356.5364137124593</v>
+        <v>595.2146196863289</v>
       </c>
       <c r="R3">
-        <v>356.5364137124593</v>
+        <v>5356.93157717696</v>
       </c>
       <c r="S3">
-        <v>0.001582454055424602</v>
+        <v>0.002306222372626072</v>
       </c>
       <c r="T3">
-        <v>0.001582454055424602</v>
+        <v>0.002401159902566031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H4">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I4">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J4">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7188809057465</v>
+        <v>19.37830233333333</v>
       </c>
       <c r="N4">
-        <v>18.7188809057465</v>
+        <v>58.134907</v>
       </c>
       <c r="O4">
-        <v>0.2689979225178228</v>
+        <v>0.2596797924831069</v>
       </c>
       <c r="P4">
-        <v>0.2689979225178228</v>
+        <v>0.2661351715768666</v>
       </c>
       <c r="Q4">
-        <v>707.4665844850314</v>
+        <v>1070.985027471529</v>
       </c>
       <c r="R4">
-        <v>707.4665844850314</v>
+        <v>9638.865247243761</v>
       </c>
       <c r="S4">
-        <v>0.003140025317578403</v>
+        <v>0.004149645437815375</v>
       </c>
       <c r="T4">
-        <v>0.003140025317578403</v>
+        <v>0.004320468985738993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H5">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I5">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J5">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.240613779553</v>
+        <v>31.136893</v>
       </c>
       <c r="N5">
-        <v>30.240613779553</v>
+        <v>93.41067899999999</v>
       </c>
       <c r="O5">
-        <v>0.4345699042225514</v>
+        <v>0.4172513037378061</v>
       </c>
       <c r="P5">
-        <v>0.4345699042225514</v>
+        <v>0.4276237525034073</v>
       </c>
       <c r="Q5">
-        <v>1142.922157103074</v>
+        <v>1720.849723126747</v>
       </c>
       <c r="R5">
-        <v>1142.922157103074</v>
+        <v>15487.64750814072</v>
       </c>
       <c r="S5">
-        <v>0.005072754795814539</v>
+        <v>0.006667615344350451</v>
       </c>
       <c r="T5">
-        <v>0.005072754795814539</v>
+        <v>0.006942093182609212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H6">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I6">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J6">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.16424782522925</v>
+        <v>5.430231</v>
       </c>
       <c r="N6">
-        <v>5.16424782522925</v>
+        <v>10.860462</v>
       </c>
       <c r="O6">
-        <v>0.07421233904679587</v>
+        <v>0.07276804928312694</v>
       </c>
       <c r="P6">
-        <v>0.07421233904679587</v>
+        <v>0.0497179933180944</v>
       </c>
       <c r="Q6">
-        <v>195.1790167769908</v>
+        <v>300.11380752936</v>
       </c>
       <c r="R6">
-        <v>195.1790167769908</v>
+        <v>1800.68284517616</v>
       </c>
       <c r="S6">
-        <v>0.0008662841010164744</v>
+        <v>0.001162822878280357</v>
       </c>
       <c r="T6">
-        <v>0.0008662841010164744</v>
+        <v>0.000807127621994766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H7">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I7">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J7">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.0301044441879</v>
+        <v>7.908652666666666</v>
       </c>
       <c r="N7">
-        <v>6.0301044441879</v>
+        <v>23.725958</v>
       </c>
       <c r="O7">
-        <v>0.086655050385735</v>
+        <v>0.1059802478036631</v>
       </c>
       <c r="P7">
-        <v>0.086655050385735</v>
+        <v>0.1086148104297394</v>
       </c>
       <c r="Q7">
-        <v>18407.9882243499</v>
+        <v>25554.20190655259</v>
       </c>
       <c r="R7">
-        <v>18407.9882243499</v>
+        <v>229987.8171589733</v>
       </c>
       <c r="S7">
-        <v>0.0817021613992099</v>
+        <v>0.09901247416024958</v>
       </c>
       <c r="T7">
-        <v>0.0817021613992099</v>
+        <v>0.1030884036289739</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H8">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I8">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J8">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.43360833318156</v>
+        <v>10.76975733333333</v>
       </c>
       <c r="N8">
-        <v>9.43360833318156</v>
+        <v>32.309272</v>
       </c>
       <c r="O8">
-        <v>0.135564783827095</v>
+        <v>0.1443206066922968</v>
       </c>
       <c r="P8">
-        <v>0.135564783827095</v>
+        <v>0.1479082721718924</v>
       </c>
       <c r="Q8">
-        <v>28797.80155013914</v>
+        <v>34798.91771458612</v>
       </c>
       <c r="R8">
-        <v>28797.80155013914</v>
+        <v>313190.2594312751</v>
       </c>
       <c r="S8">
-        <v>0.1278163915315617</v>
+        <v>0.1348321091623139</v>
       </c>
       <c r="T8">
-        <v>0.1278163915315617</v>
+        <v>0.1403825831982973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H9">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I9">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J9">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7188809057465</v>
+        <v>19.37830233333333</v>
       </c>
       <c r="N9">
-        <v>18.7188809057465</v>
+        <v>58.134907</v>
       </c>
       <c r="O9">
-        <v>0.2689979225178228</v>
+        <v>0.2596797924831069</v>
       </c>
       <c r="P9">
-        <v>0.2689979225178228</v>
+        <v>0.2661351715768666</v>
       </c>
       <c r="Q9">
-        <v>57142.78126942051</v>
+        <v>62614.59079109294</v>
       </c>
       <c r="R9">
-        <v>57142.78126942051</v>
+        <v>563531.3171198365</v>
       </c>
       <c r="S9">
-        <v>0.2536229750461405</v>
+        <v>0.2426068939827851</v>
       </c>
       <c r="T9">
-        <v>0.2536229750461405</v>
+        <v>0.2525940051714187</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H10">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I10">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J10">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.240613779553</v>
+        <v>31.136893</v>
       </c>
       <c r="N10">
-        <v>30.240613779553</v>
+        <v>93.41067899999999</v>
       </c>
       <c r="O10">
-        <v>0.4345699042225514</v>
+        <v>0.4172513037378061</v>
       </c>
       <c r="P10">
-        <v>0.4345699042225514</v>
+        <v>0.4276237525034073</v>
       </c>
       <c r="Q10">
-        <v>92314.96195520605</v>
+        <v>100608.5971910669</v>
       </c>
       <c r="R10">
-        <v>92314.96195520605</v>
+        <v>905477.3747196024</v>
       </c>
       <c r="S10">
-        <v>0.4097314616514827</v>
+        <v>0.3898187142023461</v>
       </c>
       <c r="T10">
-        <v>0.4097314616514827</v>
+        <v>0.4058659203564517</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H11">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I11">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J11">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.16424782522925</v>
+        <v>5.430231</v>
       </c>
       <c r="N11">
-        <v>5.16424782522925</v>
+        <v>10.860462</v>
       </c>
       <c r="O11">
-        <v>0.07421233904679587</v>
+        <v>0.07276804928312694</v>
       </c>
       <c r="P11">
-        <v>0.07421233904679587</v>
+        <v>0.0497179933180944</v>
       </c>
       <c r="Q11">
-        <v>15764.80374997007</v>
+        <v>17545.99996002956</v>
       </c>
       <c r="R11">
-        <v>15764.80374997007</v>
+        <v>105275.9997601774</v>
       </c>
       <c r="S11">
-        <v>0.06997063039746769</v>
+        <v>0.06798384367514511</v>
       </c>
       <c r="T11">
-        <v>0.06997063039746769</v>
+        <v>0.04718830279700965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.88005201614717</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H12">
-        <v>1.88005201614717</v>
+        <v>17.774367</v>
       </c>
       <c r="I12">
-        <v>0.0005806681942038663</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J12">
-        <v>0.0005806681942038663</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.0301044441879</v>
+        <v>7.908652666666666</v>
       </c>
       <c r="N12">
-        <v>6.0301044441879</v>
+        <v>23.725958</v>
       </c>
       <c r="O12">
-        <v>0.086655050385735</v>
+        <v>0.1059802478036631</v>
       </c>
       <c r="P12">
-        <v>0.086655050385735</v>
+        <v>0.1086148104297394</v>
       </c>
       <c r="Q12">
-        <v>11.33691001787347</v>
+        <v>46.85709832428734</v>
       </c>
       <c r="R12">
-        <v>11.33691001787347</v>
+        <v>421.713884918586</v>
       </c>
       <c r="S12">
-        <v>5.031783162612979E-05</v>
+        <v>0.0001815528128807706</v>
       </c>
       <c r="T12">
-        <v>5.031783162612979E-05</v>
+        <v>0.0001890265828923437</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.88005201614717</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H13">
-        <v>1.88005201614717</v>
+        <v>17.774367</v>
       </c>
       <c r="I13">
-        <v>0.0005806681942038663</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J13">
-        <v>0.0005806681942038663</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.43360833318156</v>
+        <v>10.76975733333333</v>
       </c>
       <c r="N13">
-        <v>9.43360833318156</v>
+        <v>32.309272</v>
       </c>
       <c r="O13">
-        <v>0.135564783827095</v>
+        <v>0.1443206066922968</v>
       </c>
       <c r="P13">
-        <v>0.135564783827095</v>
+        <v>0.1479082721718924</v>
       </c>
       <c r="Q13">
-        <v>17.73567436634074</v>
+        <v>63.80853978120267</v>
       </c>
       <c r="R13">
-        <v>17.73567436634074</v>
+        <v>574.2768580308241</v>
       </c>
       <c r="S13">
-        <v>7.871815822251675E-05</v>
+        <v>0.0002472329763767566</v>
       </c>
       <c r="T13">
-        <v>7.871815822251675E-05</v>
+        <v>0.0002574105240302322</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.88005201614717</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H14">
-        <v>1.88005201614717</v>
+        <v>17.774367</v>
       </c>
       <c r="I14">
-        <v>0.0005806681942038663</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J14">
-        <v>0.0005806681942038663</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.7188809057465</v>
+        <v>19.37830233333333</v>
       </c>
       <c r="N14">
-        <v>18.7188809057465</v>
+        <v>58.134907</v>
       </c>
       <c r="O14">
-        <v>0.2689979225178228</v>
+        <v>0.2596797924831069</v>
       </c>
       <c r="P14">
-        <v>0.2689979225178228</v>
+        <v>0.2661351715768666</v>
       </c>
       <c r="Q14">
-        <v>35.19246978686747</v>
+        <v>114.8123525032077</v>
       </c>
       <c r="R14">
-        <v>35.19246978686747</v>
+        <v>1033.311172528869</v>
       </c>
       <c r="S14">
-        <v>0.0001561985379130157</v>
+        <v>0.0004448526753866798</v>
       </c>
       <c r="T14">
-        <v>0.0001561985379130157</v>
+        <v>0.0004631653995583315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.88005201614717</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H15">
-        <v>1.88005201614717</v>
+        <v>17.774367</v>
       </c>
       <c r="I15">
-        <v>0.0005806681942038663</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J15">
-        <v>0.0005806681942038663</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.240613779553</v>
+        <v>31.136893</v>
       </c>
       <c r="N15">
-        <v>30.240613779553</v>
+        <v>93.41067899999999</v>
       </c>
       <c r="O15">
-        <v>0.4345699042225514</v>
+        <v>0.4172513037378061</v>
       </c>
       <c r="P15">
-        <v>0.4345699042225514</v>
+        <v>0.4276237525034073</v>
       </c>
       <c r="Q15">
-        <v>56.85392690577651</v>
+        <v>184.479521140577</v>
       </c>
       <c r="R15">
-        <v>56.85392690577651</v>
+        <v>1660.315690265193</v>
       </c>
       <c r="S15">
-        <v>0.000252340921540256</v>
+        <v>0.0007147855326032662</v>
       </c>
       <c r="T15">
-        <v>0.000252340921540256</v>
+        <v>0.0007442102635865581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.88005201614717</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H16">
-        <v>1.88005201614717</v>
+        <v>17.774367</v>
       </c>
       <c r="I16">
-        <v>0.0005806681942038663</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J16">
-        <v>0.0005806681942038663</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.16424782522925</v>
+        <v>5.430231</v>
       </c>
       <c r="N16">
-        <v>5.16424782522925</v>
+        <v>10.860462</v>
       </c>
       <c r="O16">
-        <v>0.07421233904679587</v>
+        <v>0.07276804928312694</v>
       </c>
       <c r="P16">
-        <v>0.07421233904679587</v>
+        <v>0.0497179933180944</v>
       </c>
       <c r="Q16">
-        <v>9.70905453570589</v>
+        <v>32.172972896259</v>
       </c>
       <c r="R16">
-        <v>9.70905453570589</v>
+        <v>193.037837377554</v>
       </c>
       <c r="S16">
-        <v>4.309274490194804E-05</v>
+        <v>0.0001246576065728127</v>
       </c>
       <c r="T16">
-        <v>4.309274490194804E-05</v>
+        <v>8.652615925949751E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>145.383106593162</v>
+        <v>3.689559</v>
       </c>
       <c r="H17">
-        <v>145.383106593162</v>
+        <v>11.068677</v>
       </c>
       <c r="I17">
-        <v>0.04490266505827957</v>
+        <v>0.001066791686439732</v>
       </c>
       <c r="J17">
-        <v>0.04490266505827957</v>
+        <v>0.001083765710432669</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.0301044441879</v>
+        <v>7.908652666666666</v>
       </c>
       <c r="N17">
-        <v>6.0301044441879</v>
+        <v>23.725958</v>
       </c>
       <c r="O17">
-        <v>0.086655050385735</v>
+        <v>0.1059802478036631</v>
       </c>
       <c r="P17">
-        <v>0.086655050385735</v>
+        <v>0.1086148104297394</v>
       </c>
       <c r="Q17">
-        <v>876.6753171772694</v>
+        <v>29.179440624174</v>
       </c>
       <c r="R17">
-        <v>876.6753171772694</v>
+        <v>262.614965617566</v>
       </c>
       <c r="S17">
-        <v>0.003891042703078999</v>
+        <v>0.0001130588472837704</v>
       </c>
       <c r="T17">
-        <v>0.003891042703078999</v>
+        <v>0.0001177130071888961</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>145.383106593162</v>
+        <v>3.689559</v>
       </c>
       <c r="H18">
-        <v>145.383106593162</v>
+        <v>11.068677</v>
       </c>
       <c r="I18">
-        <v>0.04490266505827957</v>
+        <v>0.001066791686439732</v>
       </c>
       <c r="J18">
-        <v>0.04490266505827957</v>
+        <v>0.001083765710432669</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.43360833318156</v>
+        <v>10.76975733333333</v>
       </c>
       <c r="N18">
-        <v>9.43360833318156</v>
+        <v>32.309272</v>
       </c>
       <c r="O18">
-        <v>0.135564783827095</v>
+        <v>0.1443206066922968</v>
       </c>
       <c r="P18">
-        <v>0.135564783827095</v>
+        <v>0.1479082721718924</v>
       </c>
       <c r="Q18">
-        <v>1371.487285861076</v>
+        <v>39.735655097016</v>
       </c>
       <c r="R18">
-        <v>1371.487285861076</v>
+        <v>357.620895873144</v>
       </c>
       <c r="S18">
-        <v>0.006087220081886122</v>
+        <v>0.0001539600234012806</v>
       </c>
       <c r="T18">
-        <v>0.006087220081886122</v>
+        <v>0.0001602979136692394</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>145.383106593162</v>
+        <v>3.689559</v>
       </c>
       <c r="H19">
-        <v>145.383106593162</v>
+        <v>11.068677</v>
       </c>
       <c r="I19">
-        <v>0.04490266505827957</v>
+        <v>0.001066791686439732</v>
       </c>
       <c r="J19">
-        <v>0.04490266505827957</v>
+        <v>0.001083765710432669</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.7188809057465</v>
+        <v>19.37830233333333</v>
       </c>
       <c r="N19">
-        <v>18.7188809057465</v>
+        <v>58.134907</v>
       </c>
       <c r="O19">
-        <v>0.2689979225178228</v>
+        <v>0.2596797924831069</v>
       </c>
       <c r="P19">
-        <v>0.2689979225178228</v>
+        <v>0.2661351715768666</v>
       </c>
       <c r="Q19">
-        <v>2721.409058024848</v>
+        <v>71.49738977867101</v>
       </c>
       <c r="R19">
-        <v>2721.409058024848</v>
+        <v>643.476508008039</v>
       </c>
       <c r="S19">
-        <v>0.01207872361619084</v>
+        <v>0.0002770242437573731</v>
       </c>
       <c r="T19">
-        <v>0.01207872361619084</v>
+        <v>0.000288428173295123</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>145.383106593162</v>
+        <v>3.689559</v>
       </c>
       <c r="H20">
-        <v>145.383106593162</v>
+        <v>11.068677</v>
       </c>
       <c r="I20">
-        <v>0.04490266505827957</v>
+        <v>0.001066791686439732</v>
       </c>
       <c r="J20">
-        <v>0.04490266505827957</v>
+        <v>0.001083765710432669</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.240613779553</v>
+        <v>31.136893</v>
       </c>
       <c r="N20">
-        <v>30.240613779553</v>
+        <v>93.41067899999999</v>
       </c>
       <c r="O20">
-        <v>0.4345699042225514</v>
+        <v>0.4172513037378061</v>
       </c>
       <c r="P20">
-        <v>0.4345699042225514</v>
+        <v>0.4276237525034073</v>
       </c>
       <c r="Q20">
-        <v>4396.474376555398</v>
+        <v>114.881403800187</v>
       </c>
       <c r="R20">
-        <v>4396.474376555398</v>
+        <v>1033.932634201683</v>
       </c>
       <c r="S20">
-        <v>0.01951334685371386</v>
+        <v>0.0004451202219836309</v>
       </c>
       <c r="T20">
-        <v>0.01951334685371386</v>
+        <v>0.0004634439599297389</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>3.689559</v>
+      </c>
+      <c r="H21">
+        <v>11.068677</v>
+      </c>
+      <c r="I21">
+        <v>0.001066791686439732</v>
+      </c>
+      <c r="J21">
+        <v>0.001083765710432669</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.430231</v>
+      </c>
+      <c r="N21">
+        <v>10.860462</v>
+      </c>
+      <c r="O21">
+        <v>0.07276804928312694</v>
+      </c>
+      <c r="P21">
+        <v>0.0497179933180944</v>
+      </c>
+      <c r="Q21">
+        <v>20.035157658129</v>
+      </c>
+      <c r="R21">
+        <v>120.210945948774</v>
+      </c>
+      <c r="S21">
+        <v>7.76283500136765E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.388265634967125E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>162.5045395</v>
+      </c>
+      <c r="H22">
+        <v>325.009079</v>
+      </c>
+      <c r="I22">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J22">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.908652666666666</v>
+      </c>
+      <c r="N22">
+        <v>23.725958</v>
+      </c>
+      <c r="O22">
+        <v>0.1059802478036631</v>
+      </c>
+      <c r="P22">
+        <v>0.1086148104297394</v>
+      </c>
+      <c r="Q22">
+        <v>1285.191959662114</v>
+      </c>
+      <c r="R22">
+        <v>7711.151757972682</v>
+      </c>
+      <c r="S22">
+        <v>0.004979612987419347</v>
+      </c>
+      <c r="T22">
+        <v>0.00345640188549937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>162.5045395</v>
+      </c>
+      <c r="H23">
+        <v>325.009079</v>
+      </c>
+      <c r="I23">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J23">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.76975733333333</v>
+      </c>
+      <c r="N23">
+        <v>32.309272</v>
+      </c>
+      <c r="O23">
+        <v>0.1443206066922968</v>
+      </c>
+      <c r="P23">
+        <v>0.1479082721718924</v>
+      </c>
+      <c r="Q23">
+        <v>1750.134455980081</v>
+      </c>
+      <c r="R23">
+        <v>10500.80673588049</v>
+      </c>
+      <c r="S23">
+        <v>0.006781082157578812</v>
+      </c>
+      <c r="T23">
+        <v>0.004706820633329622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>162.5045395</v>
+      </c>
+      <c r="H24">
+        <v>325.009079</v>
+      </c>
+      <c r="I24">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J24">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>19.37830233333333</v>
+      </c>
+      <c r="N24">
+        <v>58.134907</v>
+      </c>
+      <c r="O24">
+        <v>0.2596797924831069</v>
+      </c>
+      <c r="P24">
+        <v>0.2661351715768666</v>
+      </c>
+      <c r="Q24">
+        <v>3149.062096970109</v>
+      </c>
+      <c r="R24">
+        <v>18894.37258182065</v>
+      </c>
+      <c r="S24">
+        <v>0.0122013761433623</v>
+      </c>
+      <c r="T24">
+        <v>0.008469103846855437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>145.383106593162</v>
-      </c>
-      <c r="H21">
-        <v>145.383106593162</v>
-      </c>
-      <c r="I21">
-        <v>0.04490266505827957</v>
-      </c>
-      <c r="J21">
-        <v>0.04490266505827957</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.16424782522925</v>
-      </c>
-      <c r="N21">
-        <v>5.16424782522925</v>
-      </c>
-      <c r="O21">
-        <v>0.07421233904679587</v>
-      </c>
-      <c r="P21">
-        <v>0.07421233904679587</v>
-      </c>
-      <c r="Q21">
-        <v>750.7943920488092</v>
-      </c>
-      <c r="R21">
-        <v>750.7943920488092</v>
-      </c>
-      <c r="S21">
-        <v>0.003332331803409758</v>
-      </c>
-      <c r="T21">
-        <v>0.003332331803409758</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>162.5045395</v>
+      </c>
+      <c r="H25">
+        <v>325.009079</v>
+      </c>
+      <c r="I25">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J25">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.136893</v>
+      </c>
+      <c r="N25">
+        <v>93.41067899999999</v>
+      </c>
+      <c r="O25">
+        <v>0.4172513037378061</v>
+      </c>
+      <c r="P25">
+        <v>0.4276237525034073</v>
+      </c>
+      <c r="Q25">
+        <v>5059.886458425774</v>
+      </c>
+      <c r="R25">
+        <v>30359.31875055464</v>
+      </c>
+      <c r="S25">
+        <v>0.01960506843652255</v>
+      </c>
+      <c r="T25">
+        <v>0.01360808474083012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>162.5045395</v>
+      </c>
+      <c r="H26">
+        <v>325.009079</v>
+      </c>
+      <c r="I26">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J26">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.430231</v>
+      </c>
+      <c r="N26">
+        <v>10.860462</v>
+      </c>
+      <c r="O26">
+        <v>0.07276804928312694</v>
+      </c>
+      <c r="P26">
+        <v>0.0497179933180944</v>
+      </c>
+      <c r="Q26">
+        <v>882.4371880336246</v>
+      </c>
+      <c r="R26">
+        <v>3529.748752134498</v>
+      </c>
+      <c r="S26">
+        <v>0.003419096773114976</v>
+      </c>
+      <c r="T26">
+        <v>0.001582154083480813</v>
       </c>
     </row>
   </sheetData>
